--- a/biology/Histoire de la zoologie et de la botanique/Sanshi_Imai/Sanshi_Imai.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Sanshi_Imai/Sanshi_Imai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sanshi Imai (今井 三子, Imai Sanshi?), né le 20 février 1900 – décédé le 9 janvier 1976, est un mycologue japonais de l'université impériale de Hokkaido[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sanshi Imai (今井 三子, Imai Sanshi?), né le 20 février 1900 – décédé le 9 janvier 1976, est un mycologue japonais de l'université impériale de Hokkaido
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Taxons éponymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Clitocybe imaiana
 Imaia (en)
@@ -545,7 +559,9 @@
           <t>Publications (liste partielle)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sanshi Imai (1929) On the Clavariaceae of Japan: I. Transactions of the Sapporo Natural History Society vol. 11, no 1, pp. 38–45.
 Sanshi Imai (1930) On the Clavariaceae of Japan: II. Transactions of the Sapporo Natural History Society vol. 11, no 2, pp. 70–77.
